--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-010.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>43026.130000</t>
+          <t>54804.180000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -558,7 +558,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3126.15</t>
+          <t>5904.95</t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sean Goodson</t>
+          <t>Michelle Tost</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69.470000</t>
+          <t>138.450000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6009.19</t>
+          <t>8999.25</t>
         </is>
       </c>
     </row>
@@ -688,26 +688,60 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Steven Parks</t>
+          <t>Sean Goodson</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6009.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Steven Parks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>79.50</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>97.870000</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>7780.64</t>
         </is>
